--- a/data/trans_bre/P21D_6_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Dificultad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.981338113772626</v>
+        <v>-2.096184375449289</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.704589283907685</v>
+        <v>-0.801864847001958</v>
       </c>
     </row>
     <row r="6">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.862236887127531</v>
+        <v>3.83963080320107</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -599,7 +599,7 @@
         <v>1.009595872817129</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.9734530718784551</v>
+        <v>0.9734530718784548</v>
       </c>
     </row>
     <row r="8">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5257836447237302</v>
+        <v>-0.5158223180785763</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3907549734936652</v>
+        <v>-0.3839179832967132</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.266667788701869</v>
+        <v>2.270653920252753</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.485756808181553</v>
+        <v>6.617208072974626</v>
       </c>
     </row>
     <row r="10">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.447865295920234</v>
+        <v>-1.680820062408828</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.03887031138763013</v>
+        <v>-0.044770291228315</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.143608986137857</v>
+        <v>1.21158561246062</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6472318728100285</v>
+        <v>0.6472318728100283</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>1.161488503866564</v>
+        <v>1.161488503866563</v>
       </c>
     </row>
     <row r="17">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002048710834711722</v>
+        <v>-0.01495275189171639</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.07527007826947371</v>
+        <v>-0.1457899497678261</v>
       </c>
     </row>
     <row r="18">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.241160180012685</v>
+        <v>1.198020145183455</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4.08301612862279</v>
+        <v>3.717575159051698</v>
       </c>
     </row>
     <row r="19">
